--- a/data/0.reference/2.look_ups/SNNP/zones_field.xlsx
+++ b/data/0.reference/2.look_ups/SNNP/zones_field.xlsx
@@ -29,13 +29,13 @@
     <t xml:space="preserve">hadiya</t>
   </si>
   <si>
-    <t xml:space="preserve">halaba</t>
-  </si>
-  <si>
     <t xml:space="preserve">kembata tembaro</t>
   </si>
   <si>
     <t xml:space="preserve">silite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siltie</t>
   </si>
   <si>
     <t xml:space="preserve">wolaita</t>
